--- a/slides/report/newStar/images/对照组(3).xlsx
+++ b/slides/report/newStar/images/对照组(3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49399B1A-08E4-4A24-BA85-1789309D2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7B66D-22A6-4C17-819B-EB81EC7AB51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{F3AD5F95-7170-E944-BB16-6ED920467CE8}"/>
   </bookViews>
@@ -347,7 +347,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -467,7 +467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -741,7 +741,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -861,7 +861,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
